--- a/customer_churn_predict/securities_retention_plan.xlsx
+++ b/customer_churn_predict/securities_retention_plan.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CUST_000355</t>
+          <t>CUST_000196</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -498,12 +498,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>资产波动率: 0.49, 资金净流出周数: 5</t>
+          <t>资产波动率: 0.43, 资金净流出周数: 5</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['优惠力度: 提供机构客户专属增值服务包：免费参加线上季度策略会、每月财务税务政策解读、员工持股计划设计咨询（单次免费）', '沟通话术: 赵总，除了交易服务，我们希望为您的机构运营提供支持。我们每月的政策解读月报可以帮您及时掌握财税政策变化。如果您在考虑员工激励方案，我们的机构业务部可以提供单次免费咨询服务。这些都是我们长期合作伙伴的标配服务。']</t>
+          <t>["挽留策略: 风险等级: 高; 策略: {'标题': '紧急挽留-高管介入专项方案', '具体措施': [{'优惠力度': '① 6个月全品类交易零佣金 ② 免费开通价值¥12万/年的机构级研究平台 ③ 提供1对1专属机构客户经理服务 ④ 承诺48小时内解决任何服务问题', '沟通话术': '王总您好，我是XX证券机构业务部总监张华。我们非常重视您机构的合作，注意到账户近期有调整，想必是我们服务有不到位之处。为表达诚意，我们愿意立即为您提供6个月零佣金交易、免费机构研究平台，并安排我亲自牵头服务。能否给我15分钟，听听您的真实想法？任何需求我们一定全力解决。'}], '执行步骤': ['1. 机构业务部高管在2小时内直接电话联络客户决策人', '2. 了解资产大幅下降根本原因（服务/系统/费率/人员变动）', '3. 针对问题制定个性化解决方案并现场承诺', '4. 24小时内书面发送《机构客户服务承诺书》', '5. 后续每周回访，持续1个月']}; 预期效果: 挽回概率50%以上，目标1个月内恢复账户资产至¥500万以上，重建长期合作关系; 执行优先级: 最高（立即执行）, 风险等级: 中; 策略: {'标题': '预防性维护-机构客户增值服务包', '具体措施': [{'优惠力度': '① 交易佣金永久8折 ② 每季度提供定制化投资策略报告 ③ 优先参与科创板/创业板战略配售 ④ 免费使用智能算法交易系统', '沟通话术': '李经理，感谢您一直以来对我们服务的认可。为更好支持您机构的投资决策，我们特别为您升级了服务权益包，包括佣金优惠和季度策略报告。明天下午我刚好路过您公司附近，给您送份材料，顺便听听您近期的投资规划？'}], '执行步骤': ['1. 机构客户经理每周主动电话沟通，了解资金动向', '2. 每月发送2份深度行业研究报告', '3. 每季度举办机构客户闭门策略会', '4. 每半年进行服务满意度调查并优化']}; 预期效果: 降低30%流失率，6个月内账户资产提升20%以上，增强客户粘性; 执行优先级: 中（本周内启动）, 风险等级: 低; 策略: {'标题': '关系深化-机构客户体验优化计划', '具体措施': [{'优惠力度': '① 免费开通Level2十档行情 ② 每月邀请参加投资沙龙（线上/线下） ③ 提供年度税务优化咨询 ④ 赠送3个月极速交易通道', '沟通话术': '赵总，我们近期优化了机构客户服务体系，特别为您开通了Level2行情和极速交易通道。本月28号我们有个私募策略交流会，邀请了两位资深基金经理分享，想邀请您参加，您看方便吗？'}], '执行步骤': ['1. 客户经理每月至少1次非业务性关怀沟通', '2. 定期发送市场热点解读和监管政策分析', '3. 重要节假日前后上门拜访', '4. 每年提供一次投资组合健康诊断']}; 预期效果: 客户满意度提升至90%以上，保持资产稳定，为后续增资奠定基础; 执行优先级: 低（本月内安排）"]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -524,12 +524,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CUST_000196</t>
+          <t>CUST_001591</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>高</t>
+          <t>低</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -539,21 +539,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>资产波动率: 0.43, 资金净流出周数: 5</t>
+          <t>资产波动率: 0.52, 资金净流出周数: 5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['挽留策略: 风险等级: 高; 策略: {\'标题\': \'紧急高层介入+定制化费率方案\', \'优惠力度\': \'交易佣金率降至万1.5（原万2.5），融资融券利率降至5.5%（原6.8%），赠送Level-2行情及量化交易接口权限，承诺资产保留奖励（留存1000万奖励2万元交易抵用金）\', \'沟通话术\': \'X总您好！我是XX证券机构业务部总经理XXX。得知您近期有转移账户的考虑，我们非常重视。为表达诚意，我亲自为您申请了专项费率方案：交易佣金万1.5，两融利率5.5%，并免费开通量化接口。今晚8点我亲自登门拜访，30分钟内给您最终方案。我们合作3年的默契，值得一个当面沟通的机会！\'}; 预期效果: 24小时内实现风险等级下降30%，7日内资产回流率≥60%; 执行优先级: P0（立即执行）, 风险等级: 中; 策略: {\'标题\': \'产品组合优化+服务升级\', \'优惠力度\': \'配置专属机构理财顾问，提供季度投资策略报告会VIP席位，交易佣金降至万2.0，优先参与定增及战略配售项目（锁定额度500万起）\', \'沟通话术\': "X总您好！我是您的专属客户经理小李。注意到您近期交易频率有所下降，是否对我们的服务有新的期待？我们刚推出了机构客户专享的\'磐石\'组合，近一年超额收益8.5%。另外本季度策略会邀请了XX基金首席经济学家，我为您预留了前排席位。您看本周三下午3点我带上详细方案去拜访您方便吗？"}; 预期效果: 15日内客户活跃度提升40%，新增产品配置≥200万元; 执行优先级: P1（本周内执行）, 风险等级: 低; 策略: {\'标题\': \'日常关怀+增值服务渗透\', \'优惠力度\': \'赠送上市公司调研名额2次，月度行业深度研报，生日礼遇（价值800元定制礼品），邀请加入机构客户高端沙龙（季度活动）\', \'沟通话术\': \'X总您好！我是XX证券小张。今天致电祝您生日快乐！小小礼物已寄出。另外本月我们有2次长三角上市公司联合调研机会，覆盖新能源和半导体赛道，您看是否有兴趣？我们的研报团队刚发布了关于您持仓的XX行业深度分析，稍后发您邮箱。有任何需要随时微信我！\'}; 预期效果: 30日内客户满意度提升20%，NPS评分≥8分; 执行优先级: P2（本月内执行）']</t>
+          <t>关系维护与成长陪伴计划：1) 交易佣金微调至万2，承诺随资产增长持续优化；2) 提供月度市场回顾报告及年度投资规划服务；3) 每季度面对面服务回顾会。沟通话术：'XX总，为更好支持您的业务发展，我们制定了长期服务计划。定期回顾确保服务始终匹配您的需求，伴随您的成长不断优化方案。'</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>降低客户流失风险</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
+          <t>流失风险降至10%以下，客户满意度90%+，续存率95%+</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>中</t>
+        </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
